--- a/Sample input.xlsx
+++ b/Sample input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\Share FIFO calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57a582cd0d04dc55/Documents/Finances/Share FIFO calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9A7F3-962A-4AC5-9D6B-C13DED25CA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{B0A9A7F3-962A-4AC5-9D6B-C13DED25CA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7683CA-685A-492D-AE1B-FD7D0641B53E}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="-15345" windowWidth="28800" windowHeight="15345" xr2:uid="{9B42F69B-93D2-4B74-8BDF-47110333A09A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9B42F69B-93D2-4B74-8BDF-47110333A09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Code</t>
   </si>
@@ -72,9 +72,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -159,6 +162,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,6 +181,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,19 +504,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66DAAD5-B290-42B5-B7DC-4BDE6BAD2B9E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,117 +524,201 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>43080</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>42779</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>42725</v>
+        <v>45292</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>43403</v>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>45296</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="5">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>43403</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5.0149999999999997</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>43768</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
         <v>10</v>
       </c>
-      <c r="F6" s="6">
+      <c r="D7" s="10">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6">
         <v>5</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
